--- a/汽柴煤油2.0/eta/RBOB汽油裂解价差（均价）_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/RBOB汽油裂解价差（均价）_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>19.7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -471,7 +471,7 @@
         <v>20.3</v>
       </c>
       <c r="C3" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="4">
